--- a/pcb/sensactHsLed2/PinHints.xlsx
+++ b/pcb/sensactHsLed2/PinHints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\labathome\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\pcb\sensactHsLed2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117ABA26-4B9C-479D-BAE4-2BAB53D8DD59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15658765-D27C-4E93-9132-62F8A02FF79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34245" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
+    <workbookView minimized="1" xWindow="-28620" yWindow="11685" windowWidth="28800" windowHeight="15375" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>GPIO</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>TX</t>
+  </si>
+  <si>
+    <t>Gerne CANT, weil 1 der Rezessive Status ist</t>
   </si>
 </sst>
 </file>
@@ -495,17 +498,17 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -533,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -541,18 +544,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -560,23 +566,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -587,7 +596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -598,7 +607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -609,7 +618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -620,7 +629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -631,7 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -642,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -659,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -667,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -675,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -692,67 +701,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>32</v>
       </c>
@@ -760,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>33</v>
       </c>
@@ -768,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>34</v>
       </c>
@@ -776,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>35</v>
       </c>
@@ -784,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>36</v>
       </c>
@@ -795,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>39</v>
       </c>
